--- a/docs/CareConnect-Practitioner-1.xlsx
+++ b/docs/CareConnect-Practitioner-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="307">
   <si>
     <t>Path</t>
   </si>
@@ -346,6 +346,20 @@
 </t>
   </si>
   <si>
+    <t>NHS communication preferences for a resource</t>
+  </si>
+  <si>
+    <t>Communication preferences including a list of Languages which may be used for communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Practitioner.modifierExtension</t>
   </si>
   <si>
@@ -514,7 +528,7 @@
     <t>https://fhir.nhs.uk/Id/sds-user-id</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -2197,10 +2211,10 @@
         <v>104</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2260,10 +2274,10 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
@@ -2280,11 +2294,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2306,13 +2320,13 @@
         <v>97</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2362,7 +2376,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2391,7 +2405,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2414,17 +2428,17 @@
         <v>53</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2461,17 +2475,17 @@
         <v>40</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2486,24 +2500,24 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>40</v>
@@ -2525,17 +2539,17 @@
         <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2584,7 +2598,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2599,21 +2613,21 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2636,13 +2650,13 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2693,7 +2707,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2711,7 +2725,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2722,11 +2736,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2748,13 +2762,13 @@
         <v>97</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2795,7 +2809,7 @@
         <v>100</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>40</v>
@@ -2804,7 +2818,7 @@
         <v>101</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2822,7 +2836,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2833,7 +2847,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2859,16 +2873,16 @@
         <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2893,13 +2907,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -2917,7 +2931,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2935,7 +2949,7 @@
         <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -2946,7 +2960,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2969,19 +2983,19 @@
         <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3009,10 +3023,10 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
@@ -3030,7 +3044,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3045,10 +3059,10 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3059,7 +3073,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3085,27 +3099,27 @@
         <v>65</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>40</v>
@@ -3141,7 +3155,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3156,13 +3170,13 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3170,7 +3184,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3193,16 +3207,16 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3216,7 +3230,7 @@
         <v>40</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>40</v>
@@ -3252,7 +3266,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3267,13 +3281,13 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3281,7 +3295,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3304,13 +3318,13 @@
         <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3361,7 +3375,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3376,13 +3390,13 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3390,7 +3404,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3413,16 +3427,16 @@
         <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3472,7 +3486,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3487,13 +3501,13 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3501,10 +3515,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>40</v>
@@ -3526,17 +3540,17 @@
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3585,7 +3599,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3600,21 +3614,21 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3637,13 +3651,13 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3694,7 +3708,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3712,7 +3726,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3723,11 +3737,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3749,13 +3763,13 @@
         <v>97</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3796,7 +3810,7 @@
         <v>100</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>40</v>
@@ -3805,7 +3819,7 @@
         <v>101</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3823,7 +3837,7 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3834,7 +3848,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3860,16 +3874,16 @@
         <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3894,13 +3908,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3918,7 +3932,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3936,7 +3950,7 @@
         <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3947,7 +3961,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3970,19 +3984,19 @@
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4010,10 +4024,10 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4031,7 +4045,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4046,10 +4060,10 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4060,7 +4074,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4086,27 +4100,27 @@
         <v>65</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>40</v>
@@ -4142,7 +4156,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4157,13 +4171,13 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4171,7 +4185,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4194,16 +4208,16 @@
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4217,7 +4231,7 @@
         <v>40</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>40</v>
@@ -4253,7 +4267,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4268,13 +4282,13 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4282,7 +4296,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4305,13 +4319,13 @@
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4362,7 +4376,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4377,13 +4391,13 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4391,7 +4405,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4414,16 +4428,16 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4473,7 +4487,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4488,13 +4502,13 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4502,7 +4516,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4525,22 +4539,22 @@
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
@@ -4586,7 +4600,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4604,18 +4618,18 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4638,19 +4652,19 @@
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4699,7 +4713,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4714,13 +4728,13 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4728,7 +4742,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4751,19 +4765,19 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4812,7 +4826,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4827,13 +4841,13 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4841,7 +4855,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4864,19 +4878,19 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4925,7 +4939,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4940,13 +4954,13 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -4954,7 +4968,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4980,14 +4994,14 @@
         <v>71</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5012,29 +5026,29 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5049,13 +5063,13 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5063,7 +5077,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5086,17 +5100,17 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5145,7 +5159,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5160,13 +5174,13 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5174,7 +5188,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5197,17 +5211,17 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5256,7 +5270,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5274,10 +5288,10 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5285,7 +5299,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5308,13 +5322,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5365,7 +5379,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5377,16 +5391,16 @@
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5394,7 +5408,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5417,13 +5431,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5474,7 +5488,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5492,7 +5506,7 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5503,11 +5517,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5529,13 +5543,13 @@
         <v>97</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5585,7 +5599,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5603,7 +5617,7 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5614,11 +5628,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5640,13 +5654,13 @@
         <v>97</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5696,7 +5710,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5725,7 +5739,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5748,17 +5762,17 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5807,7 +5821,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5825,7 +5839,7 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -5836,7 +5850,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5859,13 +5873,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5916,7 +5930,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5934,7 +5948,7 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -5945,11 +5959,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5971,13 +5985,13 @@
         <v>97</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6018,7 +6032,7 @@
         <v>100</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>40</v>
@@ -6027,7 +6041,7 @@
         <v>101</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6045,7 +6059,7 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6056,7 +6070,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6082,16 +6096,16 @@
         <v>71</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6116,13 +6130,13 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -6140,7 +6154,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6158,7 +6172,7 @@
         <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6169,7 +6183,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6192,19 +6206,19 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6232,10 +6246,10 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6253,7 +6267,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6268,10 +6282,10 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6282,7 +6296,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6308,14 +6322,14 @@
         <v>65</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6328,7 +6342,7 @@
         <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>40</v>
@@ -6364,7 +6378,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6379,13 +6393,13 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
@@ -6393,7 +6407,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6416,16 +6430,16 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6439,7 +6453,7 @@
         <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>40</v>
@@ -6475,7 +6489,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6490,13 +6504,13 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6504,7 +6518,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6527,13 +6541,13 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6584,7 +6598,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6599,13 +6613,13 @@
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -6613,7 +6627,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6636,16 +6650,16 @@
         <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6695,7 +6709,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6710,13 +6724,13 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -6724,7 +6738,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6747,13 +6761,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6780,31 +6794,31 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>52</v>
@@ -6822,10 +6836,10 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -6833,7 +6847,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6856,17 +6870,17 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -6915,7 +6929,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -6933,10 +6947,10 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -6944,7 +6958,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6967,13 +6981,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7024,7 +7038,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7042,7 +7056,7 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -7053,7 +7067,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7076,19 +7090,19 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7137,7 +7151,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7152,13 +7166,13 @@
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
